--- a/config_Release/sys_txz_config.xlsx
+++ b/config_Release/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -121,55 +121,46 @@
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
-    <t>消耗30万金币</t>
+    <t>任意游戏累计消耗5万金币</t>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获1条彩金鱼</t>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获任意10条鱼</t>
+  </si>
+  <si>
+    <t>在3D捕鱼中任意使用技能10次</t>
+  </si>
+  <si>
+    <t>累计游戏时长10分钟</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
+    <t>任意充值1笔</t>
+  </si>
+  <si>
+    <t>累计登陆3天</t>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+  </si>
+  <si>
+    <t>在3D捕鱼中任意使用技能50次</t>
   </si>
   <si>
     <t>在3D捕鱼中捕获任意100条鱼</t>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏中累计开炮500次</t>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除15次</t>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计消除15次</t>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-  </si>
-  <si>
-    <t>任意充值1笔</t>
-  </si>
-  <si>
-    <t>累计登陆3天</t>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel",1</t>
-  </si>
-  <si>
-    <t>使用1次红包大转盘</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_txz</t>
-  </si>
-  <si>
-    <t>深海探险通过10层</t>
-  </si>
-  <si>
-    <t>累计游戏时长200分钟</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏中累计捕获300条鱼</t>
-  </si>
-  <si>
-    <t>在苹果大战中累计纯赢100万</t>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100次</t>
+    <t>在3D捕鱼中捕获20条彩金鱼</t>
+  </si>
+  <si>
+    <t>累计游戏时长90分钟</t>
+  </si>
+  <si>
+    <t>累计充值48元</t>
   </si>
   <si>
     <t>task_id</t>
@@ -192,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,12 +216,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -239,14 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,15 +238,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,26 +300,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,14 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -330,31 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +347,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -396,19 +381,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,163 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,15 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,7 +594,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,17 +629,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,149 +680,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,14 +841,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1218,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="C20:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1232,7 +1211,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1243,7 +1222,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>10563</v>
       </c>
       <c r="C2">
@@ -1262,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1406,7 +1385,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1452,7 +1431,7 @@
         <v>30004</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -1469,7 +1448,7 @@
         <v>30005</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1486,7 +1465,7 @@
         <v>30006</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>33</v>
@@ -1506,7 +1485,7 @@
         <v>30007</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
@@ -1526,7 +1505,7 @@
         <v>30008</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>33</v>
@@ -1546,13 +1525,13 @@
         <v>30009</v>
       </c>
       <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:6">
@@ -1566,13 +1545,13 @@
         <v>30010</v>
       </c>
       <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:6">
@@ -1586,13 +1565,13 @@
         <v>30011</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1606,10 +1585,10 @@
         <v>30012</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:7">
@@ -1623,17 +1602,15 @@
         <v>30013</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="15.75" spans="1:6">
       <c r="A12">
@@ -1646,16 +1623,16 @@
         <v>30014</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1666,10 +1643,13 @@
         <v>30015</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
@@ -1683,13 +1663,13 @@
         <v>30016</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
@@ -1703,13 +1683,13 @@
         <v>30017</v>
       </c>
       <c r="D15">
-        <v>200</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>400</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
@@ -1723,13 +1703,13 @@
         <v>30018</v>
       </c>
       <c r="D16">
-        <v>200</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>400</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1759,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1773,7 +1753,7 @@
         <v>30001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1784,7 +1764,7 @@
         <v>30002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1795,7 +1775,7 @@
         <v>30003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
